--- a/arenas.xlsx
+++ b/arenas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Google Drive\Projetos\NBA_Games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8018354-C35C-46C5-AD3B-38A8E01C2909}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580B5143-2F41-493C-BD3A-0014664EAE87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{38F06E54-5C0E-4196-90DF-0A83C9BFFBA3}"/>
   </bookViews>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2873F21F-F827-443D-A66F-0B22FBE11EB3}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
